--- a/biology/Botanique/Cyprien_Gaulon/Cyprien_Gaulon.xlsx
+++ b/biology/Botanique/Cyprien_Gaulon/Cyprien_Gaulon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyprien-Charles-Marie-Nicolas Gaulon (1777-1858) est un maître écrivain et imprimeur-lithographe français du XIXe siècle, actif à Bordeaux de 1815 à 1858.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né 1777 à Fort-Dauphin en Haïti, mais rapidement orphelin, Gaulon est élevé dans une famille d'armateurs bordelais. Il effectue ses études à l'Ecole royale de Sorèze jusqu'en 1791, date à laquelle il s'engage dans l'armée de la République[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né 1777 à Fort-Dauphin en Haïti, mais rapidement orphelin, Gaulon est élevé dans une famille d'armateurs bordelais. Il effectue ses études à l'Ecole royale de Sorèze jusqu'en 1791, date à laquelle il s'engage dans l'armée de la République.
 Ce n'est qu'en 1815 qu'il s'établit maître-écrivain à Bordeaux.
-Tout en continuant son activité d'enseignement, il s'établit imprimeur-lithographe, activité pour laquelle il obtient un brevet en 1818. Il imprime des estampes d'artistes comme Gustave de Galard, Eugène Devéria ou Pierre Lacour. Il est resté célèbre pour l'impression de 4 planches tauromachiques de Francisco de Goya (les Taureaux de Bordeaux) en 1825. Son activité se développe rapidement : il a 12 presses en 1829[1].
-On lui attribue la généralisation des étiquettes de bouteille de vin lithographiées[2].
+Tout en continuant son activité d'enseignement, il s'établit imprimeur-lithographe, activité pour laquelle il obtient un brevet en 1818. Il imprime des estampes d'artistes comme Gustave de Galard, Eugène Devéria ou Pierre Lacour. Il est resté célèbre pour l'impression de 4 planches tauromachiques de Francisco de Goya (les Taureaux de Bordeaux) en 1825. Son activité se développe rapidement : il a 12 presses en 1829.
+On lui attribue la généralisation des étiquettes de bouteille de vin lithographiées.
 Il meurt à Bordeaux le 15 janvier 1858.
 			Lithographie de Francisco de Goya imprimée par Cyprien Gaulon (1825)
 			Francisco de Goya, El famoso Americano, Mariano Ceballos, [Los toreos de Burdeos], 1825, impression de Cyprien Gaulon
